--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473958482599471</v>
+        <v>2.473958482599301</v>
       </c>
       <c r="C2">
         <v>1.372206822685598</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.457523917803272</v>
+        <v>1.457523917803258</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.738763384718609</v>
+        <v>2.738763384718624</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8891434416376853</v>
+        <v>0.8891434416376711</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.23704898846789</v>
+        <v>1.237048988467777</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.409835865527114</v>
+        <v>2.409835865527143</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.75947755018192</v>
+        <v>0.7594775501818987</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.900467042605015</v>
+        <v>1.900467042604987</v>
       </c>
       <c r="C4">
-        <v>1.049963494054168</v>
+        <v>1.049963494054367</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.106692272483841</v>
+        <v>1.106692272483897</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.215272050080756</v>
+        <v>2.215272050080785</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6821061829890596</v>
+        <v>0.6821061829890738</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814291029126565</v>
+        <v>1.814291029126508</v>
       </c>
       <c r="C5">
-        <v>1.001758061515204</v>
+        <v>1.001758061515233</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.054606050375384</v>
+        <v>1.054606050375398</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.137559436916533</v>
+        <v>2.137559436916561</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.651043907340771</v>
+        <v>0.6510439073407639</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.800049253195084</v>
+        <v>1.800049253195198</v>
       </c>
       <c r="C6">
-        <v>0.9937969715979023</v>
+        <v>0.9937969715977601</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.046013725675905</v>
+        <v>1.046013725675962</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.124742678453032</v>
+        <v>2.124742678453046</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6459116696861784</v>
+        <v>0.6459116696861926</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.899300160499223</v>
+        <v>1.899300160499422</v>
       </c>
       <c r="C7">
-        <v>1.049310377284172</v>
+        <v>1.049310377283888</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.105985902077165</v>
+        <v>1.105985902077137</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.214217970758767</v>
+        <v>2.214217970758796</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6816854932778114</v>
+        <v>0.6816854932778327</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348781716747681</v>
+        <v>2.348781716747624</v>
       </c>
       <c r="C8">
-        <v>1.301658500488088</v>
+        <v>1.301658500487235</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.380315533763209</v>
+        <v>1.380315533763238</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8439059430904337</v>
+        <v>0.8439059430905047</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.291131567506113</v>
+        <v>3.291131567506056</v>
       </c>
       <c r="C9">
-        <v>1.835613421860955</v>
+        <v>1.835613421861069</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.970579064446454</v>
+        <v>1.970579064446497</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.185096049095904</v>
+        <v>1.18509604909589</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>4.044892488398489</v>
       </c>
       <c r="C10">
-        <v>2.267411798116882</v>
+        <v>2.26741179811745</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.458554619670011</v>
+        <v>2.458554619669911</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.216675522931212</v>
+        <v>4.216675522931268</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.459048914285688</v>
+        <v>1.459048914285674</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.408528044667662</v>
+        <v>4.408528044667378</v>
       </c>
       <c r="C11">
-        <v>2.477218770674881</v>
+        <v>2.477218770675165</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.699433160280634</v>
+        <v>2.69943316028062</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.566037311604617</v>
+        <v>4.566037311604646</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.550048521712768</v>
+        <v>4.550048521712711</v>
       </c>
       <c r="C12">
-        <v>2.559137044910642</v>
+        <v>2.55913704491104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.794196874838832</v>
+        <v>2.794196874838903</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.702627108656515</v>
+        <v>4.702627108656429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.643165566381882</v>
+        <v>1.643165566381867</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.519383709639897</v>
+        <v>4.519383709639555</v>
       </c>
       <c r="C13">
-        <v>2.541374240622133</v>
+        <v>2.54137424062219</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>2.773613834862047</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.420088808677804</v>
+        <v>4.420088808677747</v>
       </c>
       <c r="C14">
-        <v>2.48390505815911</v>
+        <v>2.483905058158712</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.707152593291383</v>
+        <v>2.707152593291312</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.57718251496371</v>
+        <v>4.577182514963766</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.595758519549648</v>
+        <v>1.595758519549676</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.359794162004221</v>
+        <v>4.359794162004277</v>
       </c>
       <c r="C15">
-        <v>2.449043939777539</v>
+        <v>2.449043939778164</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.666934446739219</v>
+        <v>2.666934446739276</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.519080526261462</v>
+        <v>4.519080526261405</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.573773513896526</v>
+        <v>1.573773513896541</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.021611796949173</v>
+        <v>4.021611796949117</v>
       </c>
       <c r="C16">
-        <v>2.254012792802087</v>
+        <v>2.2540127928022</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.443258181686943</v>
+        <v>2.443258181686957</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.194390388180267</v>
+        <v>4.194390388180238</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.450573753674718</v>
+        <v>1.450573753674732</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.819987185755565</v>
+        <v>3.819987185755281</v>
       </c>
       <c r="C17">
-        <v>2.13813630326041</v>
+        <v>2.138136303260069</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.311394992493689</v>
+        <v>2.311394992493859</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.705909441889389</v>
+        <v>3.705909441889503</v>
       </c>
       <c r="C18">
-        <v>2.072706540559636</v>
+        <v>2.072706540559807</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.237267456022934</v>
+        <v>2.237267456023048</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.893211504442405</v>
+        <v>3.893211504442434</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.335731856496523</v>
+        <v>1.335731856496508</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667587658535638</v>
+        <v>3.667587658535581</v>
       </c>
       <c r="C19">
-        <v>2.050748353050892</v>
+        <v>2.050748353050949</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.212442635032559</v>
+        <v>2.212442635032517</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.856786179260496</v>
+        <v>3.856786179260467</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.84124938725023</v>
+        <v>3.841249387250627</v>
       </c>
       <c r="C20">
-        <v>2.150341891724736</v>
+        <v>2.150341891725532</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.325249166024889</v>
+        <v>2.325249166024904</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.0220883204926</v>
+        <v>4.022088320492571</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.384944106740249</v>
+        <v>1.384944106740207</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.449142586939104</v>
+        <v>4.449142586939274</v>
       </c>
       <c r="C21">
-        <v>2.500712998146241</v>
+        <v>2.500712998146639</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.726569607259933</v>
+        <v>2.726569607259876</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.606354420330831</v>
+        <v>1.606354420330803</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.869283525358924</v>
+        <v>4.869283525358753</v>
       </c>
       <c r="C22">
         <v>2.744474361548157</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.01014205641313</v>
+        <v>3.010142056413144</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.759735479841481</v>
+        <v>1.759735479841495</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.642610778262792</v>
+        <v>4.642610778262735</v>
       </c>
       <c r="C23">
-        <v>2.61279696592004</v>
+        <v>2.612796965920495</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.856495294297559</v>
+        <v>2.856495294297602</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831631077759084</v>
+        <v>3.831631077758971</v>
       </c>
       <c r="C24">
-        <v>2.1448200800005</v>
+        <v>2.144820079999647</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.318980512802057</v>
+        <v>2.318980512802142</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.012917418915947</v>
+        <v>4.012917418915976</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.381445717610717</v>
+        <v>1.381445717610731</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.027484172834363</v>
+        <v>3.027484172834477</v>
       </c>
       <c r="C25">
-        <v>1.685564796840424</v>
+        <v>1.685564796841163</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.803302027739818</v>
+        <v>1.803302027739861</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.252996138867459</v>
+        <v>3.252996138867502</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.089492235510335</v>
+        <v>1.089492235510392</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473958482599301</v>
+        <v>2.473958482599471</v>
       </c>
       <c r="C2">
         <v>1.372206822685598</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.457523917803258</v>
+        <v>1.457523917803272</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.738763384718624</v>
+        <v>2.738763384718609</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8891434416376711</v>
+        <v>0.8891434416376853</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.237048988467777</v>
+        <v>1.23704898846789</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.409835865527143</v>
+        <v>2.409835865527114</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7594775501818987</v>
+        <v>0.75947755018192</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.900467042604987</v>
+        <v>1.900467042605015</v>
       </c>
       <c r="C4">
-        <v>1.049963494054367</v>
+        <v>1.049963494054168</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.106692272483897</v>
+        <v>1.106692272483841</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.215272050080785</v>
+        <v>2.215272050080756</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6821061829890738</v>
+        <v>0.6821061829890596</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814291029126508</v>
+        <v>1.814291029126565</v>
       </c>
       <c r="C5">
-        <v>1.001758061515233</v>
+        <v>1.001758061515204</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.054606050375398</v>
+        <v>1.054606050375384</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.137559436916561</v>
+        <v>2.137559436916533</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6510439073407639</v>
+        <v>0.651043907340771</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.800049253195198</v>
+        <v>1.800049253195084</v>
       </c>
       <c r="C6">
-        <v>0.9937969715977601</v>
+        <v>0.9937969715979023</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.046013725675962</v>
+        <v>1.046013725675905</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.124742678453046</v>
+        <v>2.124742678453032</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6459116696861926</v>
+        <v>0.6459116696861784</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.899300160499422</v>
+        <v>1.899300160499223</v>
       </c>
       <c r="C7">
-        <v>1.049310377283888</v>
+        <v>1.049310377284172</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.105985902077137</v>
+        <v>1.105985902077165</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.214217970758796</v>
+        <v>2.214217970758767</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6816854932778327</v>
+        <v>0.6816854932778114</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348781716747624</v>
+        <v>2.348781716747681</v>
       </c>
       <c r="C8">
-        <v>1.301658500487235</v>
+        <v>1.301658500488088</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.380315533763238</v>
+        <v>1.380315533763209</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8439059430905047</v>
+        <v>0.8439059430904337</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.291131567506056</v>
+        <v>3.291131567506113</v>
       </c>
       <c r="C9">
-        <v>1.835613421861069</v>
+        <v>1.835613421860955</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.970579064446497</v>
+        <v>1.970579064446454</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.18509604909589</v>
+        <v>1.185096049095904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>4.044892488398489</v>
       </c>
       <c r="C10">
-        <v>2.26741179811745</v>
+        <v>2.267411798116882</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.458554619669911</v>
+        <v>2.458554619670011</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.216675522931268</v>
+        <v>4.216675522931212</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.459048914285674</v>
+        <v>1.459048914285688</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.408528044667378</v>
+        <v>4.408528044667662</v>
       </c>
       <c r="C11">
-        <v>2.477218770675165</v>
+        <v>2.477218770674881</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.69943316028062</v>
+        <v>2.699433160280634</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.566037311604646</v>
+        <v>4.566037311604617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.550048521712711</v>
+        <v>4.550048521712768</v>
       </c>
       <c r="C12">
-        <v>2.55913704491104</v>
+        <v>2.559137044910642</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.794196874838903</v>
+        <v>2.794196874838832</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.702627108656429</v>
+        <v>4.702627108656515</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.643165566381867</v>
+        <v>1.643165566381882</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.519383709639555</v>
+        <v>4.519383709639897</v>
       </c>
       <c r="C13">
-        <v>2.54137424062219</v>
+        <v>2.541374240622133</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>2.773613834862047</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.420088808677747</v>
+        <v>4.420088808677804</v>
       </c>
       <c r="C14">
-        <v>2.483905058158712</v>
+        <v>2.48390505815911</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.707152593291312</v>
+        <v>2.707152593291383</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.577182514963766</v>
+        <v>4.57718251496371</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.595758519549676</v>
+        <v>1.595758519549648</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.359794162004277</v>
+        <v>4.359794162004221</v>
       </c>
       <c r="C15">
-        <v>2.449043939778164</v>
+        <v>2.449043939777539</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.666934446739276</v>
+        <v>2.666934446739219</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.519080526261405</v>
+        <v>4.519080526261462</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.573773513896541</v>
+        <v>1.573773513896526</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.021611796949117</v>
+        <v>4.021611796949173</v>
       </c>
       <c r="C16">
-        <v>2.2540127928022</v>
+        <v>2.254012792802087</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.443258181686957</v>
+        <v>2.443258181686943</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.194390388180238</v>
+        <v>4.194390388180267</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.450573753674732</v>
+        <v>1.450573753674718</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.819987185755281</v>
+        <v>3.819987185755565</v>
       </c>
       <c r="C17">
-        <v>2.138136303260069</v>
+        <v>2.13813630326041</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.311394992493859</v>
+        <v>2.311394992493689</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.705909441889503</v>
+        <v>3.705909441889389</v>
       </c>
       <c r="C18">
-        <v>2.072706540559807</v>
+        <v>2.072706540559636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.237267456023048</v>
+        <v>2.237267456022934</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.893211504442434</v>
+        <v>3.893211504442405</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.335731856496508</v>
+        <v>1.335731856496523</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667587658535581</v>
+        <v>3.667587658535638</v>
       </c>
       <c r="C19">
-        <v>2.050748353050949</v>
+        <v>2.050748353050892</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.212442635032517</v>
+        <v>2.212442635032559</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.856786179260467</v>
+        <v>3.856786179260496</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.841249387250627</v>
+        <v>3.84124938725023</v>
       </c>
       <c r="C20">
-        <v>2.150341891725532</v>
+        <v>2.150341891724736</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.325249166024904</v>
+        <v>2.325249166024889</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.022088320492571</v>
+        <v>4.0220883204926</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.384944106740207</v>
+        <v>1.384944106740249</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.449142586939274</v>
+        <v>4.449142586939104</v>
       </c>
       <c r="C21">
-        <v>2.500712998146639</v>
+        <v>2.500712998146241</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.726569607259876</v>
+        <v>2.726569607259933</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.606354420330803</v>
+        <v>1.606354420330831</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.869283525358753</v>
+        <v>4.869283525358924</v>
       </c>
       <c r="C22">
         <v>2.744474361548157</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.010142056413144</v>
+        <v>3.01014205641313</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.759735479841495</v>
+        <v>1.759735479841481</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.642610778262735</v>
+        <v>4.642610778262792</v>
       </c>
       <c r="C23">
-        <v>2.612796965920495</v>
+        <v>2.61279696592004</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.856495294297602</v>
+        <v>2.856495294297559</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831631077758971</v>
+        <v>3.831631077759084</v>
       </c>
       <c r="C24">
-        <v>2.144820079999647</v>
+        <v>2.1448200800005</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.318980512802142</v>
+        <v>2.318980512802057</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.012917418915976</v>
+        <v>4.012917418915947</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.381445717610731</v>
+        <v>1.381445717610717</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.027484172834477</v>
+        <v>3.027484172834363</v>
       </c>
       <c r="C25">
-        <v>1.685564796841163</v>
+        <v>1.685564796840424</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.803302027739861</v>
+        <v>1.803302027739818</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.252996138867502</v>
+        <v>3.252996138867459</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.089492235510392</v>
+        <v>1.089492235510335</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473958482599471</v>
+        <v>2.443128619427682</v>
       </c>
       <c r="C2">
-        <v>1.372206822685598</v>
+        <v>1.353345021410064</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.457523917803272</v>
+        <v>1.447596023132078</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007660948449262075</v>
       </c>
       <c r="H2">
-        <v>2.738763384718609</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.748948041989337</v>
       </c>
       <c r="J2">
-        <v>0.8891434416376853</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8776175443498317</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.114965191888217</v>
+        <v>2.088985119015945</v>
       </c>
       <c r="C3">
-        <v>1.170197635684531</v>
+        <v>1.154508059235809</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.23704898846789</v>
+        <v>1.228880174165482</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007778789895305704</v>
       </c>
       <c r="H3">
-        <v>2.409835865527114</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.424125985999666</v>
       </c>
       <c r="J3">
-        <v>0.75947755018192</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7498056010614178</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.900467042605015</v>
+        <v>1.877405090923389</v>
       </c>
       <c r="C4">
-        <v>1.049963494054168</v>
+        <v>1.036172802761314</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.106692272483841</v>
+        <v>1.099517077551127</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000785197560647866</v>
       </c>
       <c r="H4">
-        <v>2.215272050080756</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.231978599329508</v>
       </c>
       <c r="J4">
-        <v>0.6821061829890596</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.673547850379471</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814291029126565</v>
+        <v>1.792408847821434</v>
       </c>
       <c r="C5">
-        <v>1.001758061515204</v>
+        <v>0.9887328035696328</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.054606050375384</v>
+        <v>1.047818644964664</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007882061792614457</v>
       </c>
       <c r="H5">
-        <v>2.137559436916533</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.155230593690149</v>
       </c>
       <c r="J5">
-        <v>0.651043907340771</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.642935360599985</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.800049253195084</v>
+        <v>1.778362549644243</v>
       </c>
       <c r="C6">
-        <v>0.9937969715979023</v>
+        <v>0.9808984082241636</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.046013725675905</v>
+        <v>1.039289795503407</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007887074861227703</v>
       </c>
       <c r="H6">
-        <v>2.124742678453032</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.142572951814358</v>
       </c>
       <c r="J6">
-        <v>0.6459116696861784</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6378776231849415</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.899300160499223</v>
+        <v>1.87625415095377</v>
       </c>
       <c r="C7">
-        <v>1.049310377284172</v>
+        <v>1.03553003816387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.105985902077165</v>
+        <v>1.098816000917139</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007852380231210686</v>
       </c>
       <c r="H7">
-        <v>2.214217970758767</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.230937603149485</v>
       </c>
       <c r="J7">
-        <v>0.6816854932778114</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6731332403170853</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348781716747681</v>
+        <v>2.319640183355489</v>
       </c>
       <c r="C8">
-        <v>1.301658500488088</v>
+        <v>1.283903227204632</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.380315533763209</v>
+        <v>1.371015235451338</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007701442442229486</v>
       </c>
       <c r="H8">
-        <v>2.623628348193307</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.635254293443978</v>
       </c>
       <c r="J8">
-        <v>0.8439059430904337</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.83302587554968</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.291131567506113</v>
+        <v>3.249235915893223</v>
       </c>
       <c r="C9">
-        <v>1.835613421860955</v>
+        <v>1.809447956939152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.970579064446454</v>
+        <v>1.956135030639231</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007409151738124077</v>
       </c>
       <c r="H9">
-        <v>3.50058937532431</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.501043990507611</v>
       </c>
       <c r="J9">
-        <v>1.185096049095904</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.169327333335275</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.044892488398489</v>
+        <v>3.992509274435122</v>
       </c>
       <c r="C10">
-        <v>2.267411798116882</v>
+        <v>2.234255782701837</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.458554619670011</v>
+        <v>2.439178092570359</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007191629773073244</v>
       </c>
       <c r="H10">
-        <v>4.216675522931212</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.207525333764636</v>
       </c>
       <c r="J10">
-        <v>1.459048914285688</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.439245939560578</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.408528044667662</v>
+        <v>4.350912629178936</v>
       </c>
       <c r="C11">
-        <v>2.477218770674881</v>
+        <v>2.440554894581567</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.699433160280634</v>
+        <v>2.677353930107216</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007090544129966178</v>
       </c>
       <c r="H11">
-        <v>4.566037311604617</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.55198114270172</v>
       </c>
       <c r="J11">
-        <v>1.591542699731505</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.569723188651849</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.550048521712768</v>
+        <v>4.490357594951092</v>
       </c>
       <c r="C12">
-        <v>2.559137044910642</v>
+        <v>2.521078395066922</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.794196874838832</v>
+        <v>2.771000324369382</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000705178611492168</v>
       </c>
       <c r="H12">
-        <v>4.702627108656515</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.686606437800123</v>
       </c>
       <c r="J12">
-        <v>1.643165566381882</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.620545516255604</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.519383709639897</v>
+        <v>4.460144538646261</v>
       </c>
       <c r="C13">
-        <v>2.541374240622133</v>
+        <v>2.503619327740466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.773613834862047</v>
+        <v>2.750662677620028</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007060157941132847</v>
       </c>
       <c r="H13">
-        <v>4.6730019772871</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.657409744119349</v>
       </c>
       <c r="J13">
-        <v>1.631977067539907</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.6095312911105</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.420088808677804</v>
+        <v>4.36230472758956</v>
       </c>
       <c r="C14">
-        <v>2.48390505815911</v>
+        <v>2.447127903030548</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.707152593291383</v>
+        <v>2.684983526954653</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007087366253351924</v>
       </c>
       <c r="H14">
-        <v>4.57718251496371</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.56296707585733</v>
       </c>
       <c r="J14">
-        <v>1.595758519549648</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.573873965562214</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.359794162004221</v>
+        <v>4.302888081518176</v>
       </c>
       <c r="C15">
-        <v>2.449043939777539</v>
+        <v>2.412856334786966</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.666934446739219</v>
+        <v>2.645231168805381</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007103963782632793</v>
       </c>
       <c r="H15">
-        <v>4.519080526261462</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.505693439154925</v>
       </c>
       <c r="J15">
-        <v>1.573773513896526</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.552227520439246</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.021611796949173</v>
+        <v>3.969559094797091</v>
       </c>
       <c r="C16">
-        <v>2.254012792802087</v>
+        <v>2.221077944852595</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.443258181686943</v>
+        <v>2.42404693151407</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007198179368606157</v>
       </c>
       <c r="H16">
-        <v>4.194390388180267</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.185547742302759</v>
       </c>
       <c r="J16">
-        <v>1.450573753674718</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.430898081551618</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.819987185755565</v>
+        <v>3.77077704464898</v>
       </c>
       <c r="C17">
-        <v>2.13813630326041</v>
+        <v>2.10710141079835</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.311394992493689</v>
+        <v>2.29357864046699</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007255322751111848</v>
       </c>
       <c r="H17">
-        <v>4.001817574655519</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.995607617663666</v>
       </c>
       <c r="J17">
-        <v>1.377210781366642</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.358629556618212</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.705909441889389</v>
+        <v>3.65829299193183</v>
       </c>
       <c r="C18">
-        <v>2.072706540559636</v>
+        <v>2.042735084313676</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.237267456022934</v>
+        <v>2.220212413701233</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007288001888332885</v>
       </c>
       <c r="H18">
-        <v>3.893211504442405</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.888467558388072</v>
       </c>
       <c r="J18">
-        <v>1.335731856496523</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.317763898449428</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667587658535638</v>
+        <v>3.620504400125924</v>
       </c>
       <c r="C19">
-        <v>2.050748353050892</v>
+        <v>2.021132387895079</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.212442635032559</v>
+        <v>2.195638984826388</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007299038660715659</v>
       </c>
       <c r="H19">
-        <v>3.856786179260496</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.852531041362113</v>
       </c>
       <c r="J19">
-        <v>1.321802719165035</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.304039881539552</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.84124938725023</v>
+        <v>3.791741090746143</v>
       </c>
       <c r="C20">
-        <v>2.150341891724736</v>
+        <v>2.119107901788652</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.325249166024889</v>
+        <v>2.307288732740361</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007249260320292632</v>
       </c>
       <c r="H20">
-        <v>4.0220883204926</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.015603281078143</v>
       </c>
       <c r="J20">
-        <v>1.384944106740249</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.366248121542952</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.449142586939104</v>
+        <v>4.390933945716654</v>
       </c>
       <c r="C21">
-        <v>2.500712998146241</v>
+        <v>2.463650647533257</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.726569607259933</v>
+        <v>2.704173655069198</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007079389137364358</v>
       </c>
       <c r="H21">
-        <v>4.60520203685661</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.590585391035148</v>
       </c>
       <c r="J21">
-        <v>1.606354420330831</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.584306132267329</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.869283525358924</v>
+        <v>4.804817282280624</v>
       </c>
       <c r="C22">
-        <v>2.744474361548157</v>
+        <v>2.703200165091857</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.01014205641313</v>
+        <v>2.984276452588531</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006965455821680153</v>
       </c>
       <c r="H22">
-        <v>5.011952386815551</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.991375619828858</v>
       </c>
       <c r="J22">
-        <v>1.759735479841481</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.735272340775282</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.642610778262792</v>
+        <v>4.581549117378188</v>
       </c>
       <c r="C23">
-        <v>2.61279696592004</v>
+        <v>2.573816206261483</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.856495294297559</v>
+        <v>2.832546662081526</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007026601733194377</v>
       </c>
       <c r="H23">
-        <v>4.792145834453777</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.77482238177538</v>
       </c>
       <c r="J23">
-        <v>1.676947654830101</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.653798722874811</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.831631077759084</v>
+        <v>3.782257701636524</v>
       </c>
       <c r="C24">
-        <v>2.1448200800005</v>
+        <v>2.11367619062969</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.318980512802057</v>
+        <v>2.301085343315123</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00072520016723964</v>
       </c>
       <c r="H24">
-        <v>4.012917418915947</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.006556890343234</v>
       </c>
       <c r="J24">
-        <v>1.381445717610717</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.362801664527396</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.027484172834363</v>
+        <v>2.989178346780136</v>
       </c>
       <c r="C25">
-        <v>1.685564796840424</v>
+        <v>1.661777732882513</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.803302027739818</v>
+        <v>1.790399858421523</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007488283922733083</v>
       </c>
       <c r="H25">
-        <v>3.252996138867459</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.256657550433758</v>
       </c>
       <c r="J25">
-        <v>1.089492235510335</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.07510166160985</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.443128619427682</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.353345021410064</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.447596023132078</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007660948449262075</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.748948041989337</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8776175443498317</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088985119015945</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.154508059235809</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.228880174165482</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007778789895305704</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.424125985999666</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7498056010614178</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.877405090923389</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.036172802761314</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.099517077551127</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.000785197560647866</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.231978599329508</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.673547850379471</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792408847821434</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9887328035696328</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.047818644964664</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007882061792614457</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.155230593690149</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.642935360599985</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.778362549644243</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9808984082241636</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.039289795503407</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007887074861227703</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.142572951814358</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6378776231849415</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.87625415095377</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.03553003816387</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.098816000917139</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007852380231210686</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.230937603149485</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6731332403170853</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.319640183355489</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.283903227204632</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.371015235451338</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007701442442229486</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.635254293443978</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.83302587554968</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.249235915893223</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.809447956939152</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.956135030639231</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.0007409151738124077</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.501043990507611</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.169327333335275</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.992509274435122</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.234255782701837</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.439178092570359</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007191629773073244</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.207525333764636</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.439245939560578</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.350912629178936</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.440554894581567</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.677353930107216</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007090544129966178</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.55198114270172</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.569723188651849</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.490357594951092</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.521078395066922</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.771000324369382</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000705178611492168</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.686606437800123</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.620545516255604</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.460144538646261</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.503619327740466</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.750662677620028</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007060157941132847</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.657409744119349</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.6095312911105</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.36230472758956</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.447127903030548</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.684983526954653</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007087366253351924</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.56296707585733</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.573873965562214</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302888081518176</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.412856334786966</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.645231168805381</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007103963782632793</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.505693439154925</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.552227520439246</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.969559094797091</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.221077944852595</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.42404693151407</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007198179368606157</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.185547742302759</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.430898081551618</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.77077704464898</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.10710141079835</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.29357864046699</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007255322751111848</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.995607617663666</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.358629556618212</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.65829299193183</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.042735084313676</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.220212413701233</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007288001888332885</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.888467558388072</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.317763898449428</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.620504400125924</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.021132387895079</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.195638984826388</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007299038660715659</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.852531041362113</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.304039881539552</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.791741090746143</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.119107901788652</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.307288732740361</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007249260320292632</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.015603281078143</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.366248121542952</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.390933945716654</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.463650647533257</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.704173655069198</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007079389137364358</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.590585391035148</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.584306132267329</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.804817282280624</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.703200165091857</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.984276452588531</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006965455821680153</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.991375619828858</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.735272340775282</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.581549117378188</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.573816206261483</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.832546662081526</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007026601733194377</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.77482238177538</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.653798722874811</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.782257701636524</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.11367619062969</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.301085343315123</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.00072520016723964</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.006556890343234</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.362801664527396</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.989178346780136</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.661777732882513</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.790399858421523</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007488283922733083</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.256657550433758</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.07510166160985</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.07298898864093</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1682305117369083</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.372459575783779</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008020951472873175</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.144823505951223</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.131054208629394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9320973132026324</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1511976624606604</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.179246869129358</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000806392434835865</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9979655137493069</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.14217251419322</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8458755058299801</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1407525568538119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.062693250139347</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008091016829089825</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9080079906945855</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.153491510039999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8107928873308765</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.136497315545185</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.015640610958712</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008102241212537247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8713845980841199</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.159168144538413</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8049701586329832</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1357907524627819</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.007852176681254</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008104116299877087</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8653049054932467</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.160173173775405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.8454021763861306</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1406951668461431</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.062056984275372</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008091167451406173</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9075139567658539</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.153563842403912</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.024338525418102</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1623535482102767</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.305358472811406</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008035625658495921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.09413071039009</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.133914606488204</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.378426364668371</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2050351553354801</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.802926350445915</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007932013537021653</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.462720881500928</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.134216171087687</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.641948241852674</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2366869206890243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.187131475645145</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007858659906338494</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.736585999810188</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.16294160261009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.762918837711794</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2511921088395894</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.367551669964868</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007825775997087664</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.862203225809964</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.183396793784738</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.808917025929873</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2567041282782583</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.436835947983667</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007813382838258407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.909953485752652</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.19231702723846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.799001529796641</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2555160945980361</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.421868879111855</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007816049469967501</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.89966096675289</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.190341760017219</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.766699147968694</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2516451768928079</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.373231488917384</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007824755281526027</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.866127824547618</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.184106449219428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.746938660391805</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2492767541921239</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.343569938061307</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007830095229025554</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.845612513694448</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.180443590383561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.634067191629555</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2357414401141398</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.175466665987059</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007860817836532585</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.728400176763387</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.161762778363993</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.565125975724754</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2274678991515202</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.073888002733838</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000787978226877044</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.656781570780907</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.152271004821188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.52557360185628</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2227189565908674</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.015983675572471</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007890736448623839</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.615683655308999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.14749962414021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.512198234732665</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.2211126148415303</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1.99646344639244</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007894453606189789</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.601784011623153</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.145999061204776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.572454232715614</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.2283475928954743</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.084646263618737</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000787775874916003</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.664395411769988</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.153209436757692</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.776181732265997</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2527816043622693</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.387490025337286</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007822196653460289</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.875972108437082</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.18590509080758</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.910449884538536</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.2688648207838611</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.591114702060665</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007786223352527383</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.015326987462117</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.214178971907387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.838674437229571</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.2602690495624245</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.481859513150638</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007805395656615977</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.940840253018791</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.198416706858637</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.569140872053111</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.2279498598871328</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.079780924502145</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007878673421845679</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.660952958191501</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.152783044610317</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.282154840485219</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1934501477645796</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.665535767914704</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007959520846985646</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.362583335331919</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.129504746965708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.07298898864093</v>
+        <v>0.3711956348603849</v>
       </c>
       <c r="C2">
-        <v>0.1682305117369083</v>
+        <v>0.06581034266109498</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.372459575783779</v>
+        <v>0.4155111673881606</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0008020951472873175</v>
+        <v>0.002425793169282033</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.144823505951223</v>
+        <v>0.3605865209266312</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.131054208629394</v>
+        <v>2.241390511598453</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9320973132026324</v>
+        <v>0.328673998069462</v>
       </c>
       <c r="C3">
-        <v>0.1511976624606604</v>
+        <v>0.06023286219627266</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.179246869129358</v>
+        <v>0.3625780745220482</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.000806392434835865</v>
+        <v>0.002428378515667693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9979655137493069</v>
+        <v>0.3151912533715517</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.14217251419322</v>
+        <v>2.269252506580187</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8458755058299801</v>
+        <v>0.3025654375947795</v>
       </c>
       <c r="C4">
-        <v>0.1407525568538119</v>
+        <v>0.05678764258971114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.062693250139347</v>
+        <v>0.3301608604842272</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008091016829089825</v>
+        <v>0.002430047342677219</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9080079906945855</v>
+        <v>0.2872566965200463</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.153491510039999</v>
+        <v>2.288147823102989</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8107928873308765</v>
+        <v>0.2919263907652692</v>
       </c>
       <c r="C5">
-        <v>0.136497315545185</v>
+        <v>0.05537856450142442</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.015640610958712</v>
+        <v>0.3169700923546657</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008102241212537247</v>
+        <v>0.002430747940476173</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8713845980841199</v>
+        <v>0.2758580777435213</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.159168144538413</v>
+        <v>2.296296152141238</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8049701586329832</v>
+        <v>0.2901598222964594</v>
       </c>
       <c r="C6">
-        <v>0.1357907524627819</v>
+        <v>0.05514428061064791</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.007852176681254</v>
+        <v>0.3147809073601451</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008104116299877087</v>
+        <v>0.002430865516651234</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8653049054932467</v>
+        <v>0.2739644495740947</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.160173173775405</v>
+        <v>2.297676217467867</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8454021763861306</v>
+        <v>0.3024219534814847</v>
       </c>
       <c r="C7">
-        <v>0.1406951668461431</v>
+        <v>0.05676865992923297</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.062056984275372</v>
+        <v>0.3299828882651923</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008091167451406173</v>
+        <v>0.002430056707831238</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9075139567658539</v>
+        <v>0.2871030311368372</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.153563842403912</v>
+        <v>2.288255900709899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.024338525418102</v>
+        <v>0.3565344390181906</v>
       </c>
       <c r="C8">
-        <v>0.1623535482102767</v>
+        <v>0.06389154376331874</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.305358472811406</v>
+        <v>0.3972414439682552</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0008035625658495921</v>
+        <v>0.002426667738725298</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.09413071039009</v>
+        <v>0.3449472884047395</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.133914606488204</v>
+        <v>2.250625484100723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.378426364668371</v>
+        <v>0.4626346507122605</v>
       </c>
       <c r="C9">
-        <v>0.2050351553354801</v>
+        <v>0.07769377383846177</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.802926350445915</v>
+        <v>0.5298791984712778</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007932013537021653</v>
+        <v>0.002420664961906481</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.462720881500928</v>
+        <v>0.457876284631368</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.134216171087687</v>
+        <v>2.191075715285237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.641948241852674</v>
+        <v>0.540567927228949</v>
       </c>
       <c r="C10">
-        <v>0.2366869206890243</v>
+        <v>0.08773145745531963</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.187131475645145</v>
+        <v>0.6278987771391087</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007858659906338494</v>
+        <v>0.002416642476409051</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.736585999810188</v>
+        <v>0.5405279446148938</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.16294160261009</v>
+        <v>2.156086578636888</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.762918837711794</v>
+        <v>0.5760162539478131</v>
       </c>
       <c r="C11">
-        <v>0.2511921088395894</v>
+        <v>0.0922752346481559</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.367551669964868</v>
+        <v>0.6726402600709349</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007825775997087664</v>
+        <v>0.002414895839102381</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.862203225809964</v>
+        <v>0.5780578516655339</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.183396793784738</v>
+        <v>2.142088826596819</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.808917025929873</v>
+        <v>0.5894387516663926</v>
       </c>
       <c r="C12">
-        <v>0.2567041282782583</v>
+        <v>0.09399257589083732</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.436835947983667</v>
+        <v>0.6896064642672712</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007813382838258407</v>
+        <v>0.002414246330527422</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.909953485752652</v>
+        <v>0.5922592537166054</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.19231702723846</v>
+        <v>2.137065606750099</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.799001529796641</v>
+        <v>0.5865480288642573</v>
       </c>
       <c r="C13">
-        <v>0.2555160945980361</v>
+        <v>0.09362286301222866</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.421868879111855</v>
+        <v>0.68595141229234</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007816049469967501</v>
+        <v>0.002414385685302515</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.89966096675289</v>
+        <v>0.5892011958850105</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.190341760017219</v>
+        <v>2.138135084872687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.766699147968694</v>
+        <v>0.5771205538084132</v>
       </c>
       <c r="C14">
-        <v>0.2516451768928079</v>
+        <v>0.09241658762280736</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.373231488917384</v>
+        <v>0.6740355974109491</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007824755281526027</v>
+        <v>0.002414842165428857</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.866127824547618</v>
+        <v>0.5792264198615271</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.184106449219428</v>
+        <v>2.141669994781864</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.746938660391805</v>
+        <v>0.5713458077255211</v>
       </c>
       <c r="C15">
-        <v>0.2492767541921239</v>
+        <v>0.09167727893127164</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.343569938061307</v>
+        <v>0.6667399387604718</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007830095229025554</v>
+        <v>0.00241512332117616</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.845612513694448</v>
+        <v>0.5731152185174437</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.180443590383561</v>
+        <v>2.143871402053065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.634067191629555</v>
+        <v>0.5382511782444794</v>
       </c>
       <c r="C16">
-        <v>0.2357414401141398</v>
+        <v>0.08743405426891115</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.175466665987059</v>
+        <v>0.6249780202225139</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007860817836532585</v>
+        <v>0.002416758292597632</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.728400176763387</v>
+        <v>0.5380738529248958</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.161762778363993</v>
+        <v>2.157040105675151</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.565125975724754</v>
+        <v>0.5179473698090078</v>
       </c>
       <c r="C17">
-        <v>0.2274678991515202</v>
+        <v>0.08482518544407469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.073888002733838</v>
+        <v>0.599398566133587</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.000787978226877044</v>
+        <v>0.002417782563722382</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.656781570780907</v>
+        <v>0.5165591632076314</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.152271004821188</v>
+        <v>2.165611225891411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.52557360185628</v>
+        <v>0.5062688146661856</v>
       </c>
       <c r="C18">
-        <v>0.2227189565908674</v>
+        <v>0.08332252708177634</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.015983675572471</v>
+        <v>0.584700132128873</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007890736448623839</v>
+        <v>0.002418379533240251</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.615683655308999</v>
+        <v>0.5041780397451134</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.14749962414021</v>
+        <v>2.170721642454851</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.512198234732665</v>
+        <v>0.5023146117616193</v>
       </c>
       <c r="C19">
-        <v>0.2211126148415303</v>
+        <v>0.08281339307686153</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.99646344639244</v>
+        <v>0.5797258797249896</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007894453606189789</v>
+        <v>0.002418583004403862</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.601784011623153</v>
+        <v>0.4999849120255533</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.145999061204776</v>
+        <v>2.172482903818121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.572454232715614</v>
+        <v>0.5201087835192766</v>
       </c>
       <c r="C20">
-        <v>0.2283475928954743</v>
+        <v>0.08510312242636076</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.084646263618737</v>
+        <v>0.6021200614348174</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.000787775874916003</v>
+        <v>0.002417672717626329</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.664395411769988</v>
+        <v>0.5188501089327815</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.153209436757692</v>
+        <v>2.164680120122767</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.776181732265997</v>
+        <v>0.5798896628564592</v>
       </c>
       <c r="C21">
-        <v>0.2527816043622693</v>
+        <v>0.09277098971040232</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.387490025337286</v>
+        <v>0.6775349073391368</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007822196653460289</v>
+        <v>0.002414707763596837</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.875972108437082</v>
+        <v>0.5821565382581753</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.18590509080758</v>
+        <v>2.140624165012042</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.910449884538536</v>
+        <v>0.6189538058017661</v>
       </c>
       <c r="C22">
-        <v>0.2688648207838611</v>
+        <v>0.09776318648991378</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.591114702060665</v>
+        <v>0.7269611030361602</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007786223352527383</v>
+        <v>0.002412839358399942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.015326987462117</v>
+        <v>0.6234703529579519</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.214178971907387</v>
+        <v>2.126519943063101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.838674437229571</v>
+        <v>0.5981052450352138</v>
       </c>
       <c r="C23">
-        <v>0.2602690495624245</v>
+        <v>0.09510053496903481</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.481859513150638</v>
+        <v>0.700568185997156</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007805395656615977</v>
+        <v>0.00241383023469105</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.940840253018791</v>
+        <v>0.601426091770179</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.198416706858637</v>
+        <v>2.1338991191638</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.569140872053111</v>
+        <v>0.5191316258707275</v>
       </c>
       <c r="C24">
-        <v>0.2279498598871328</v>
+        <v>0.08497747578795156</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.079780924502145</v>
+        <v>0.6008896501042926</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007878673421845679</v>
+        <v>0.002417722353809787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.660952958191501</v>
+        <v>0.5178144098461814</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.152783044610317</v>
+        <v>2.165100503823794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.282154840485219</v>
+        <v>0.4339342978255729</v>
       </c>
       <c r="C25">
-        <v>0.1934501477645796</v>
+        <v>0.07397783566773342</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.665535767914704</v>
+        <v>0.4939054811941048</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007959520846985646</v>
+        <v>0.002422220474494496</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.362583335331919</v>
+        <v>0.4273809917877713</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.129504746965708</v>
+        <v>2.205652514632888</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3711956348603849</v>
+        <v>1.07298898864093</v>
       </c>
       <c r="C2">
-        <v>0.06581034266109498</v>
+        <v>0.168230511737093</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4155111673881606</v>
+        <v>1.372459575783765</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002425793169282033</v>
+        <v>0.0008020951473278221</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3605865209266312</v>
+        <v>1.144823505951251</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.241390511598453</v>
+        <v>1.131054208629422</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.328673998069462</v>
+        <v>0.932097313202604</v>
       </c>
       <c r="C3">
-        <v>0.06023286219627266</v>
+        <v>0.1511976624606461</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3625780745220482</v>
+        <v>1.179246869129358</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002428378515667693</v>
+        <v>0.0008063924347595713</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3151912533715517</v>
+        <v>0.9979655137492784</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.269252506580187</v>
+        <v>1.142172514193206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3025654375947795</v>
+        <v>0.8458755058299516</v>
       </c>
       <c r="C4">
-        <v>0.05678764258971114</v>
+        <v>0.140752556853883</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3301608604842272</v>
+        <v>1.062693250139361</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002430047342677219</v>
+        <v>0.0008091016829259723</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2872566965200463</v>
+        <v>0.9080079906945855</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.288147823102989</v>
+        <v>1.153491510039942</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2919263907652692</v>
+        <v>0.8107928873309049</v>
       </c>
       <c r="C5">
-        <v>0.05537856450142442</v>
+        <v>0.1364973155451281</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3169700923546657</v>
+        <v>1.015640610958712</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002430747940476173</v>
+        <v>0.0008102241213118794</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2758580777435213</v>
+        <v>0.8713845980841199</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.296296152141238</v>
+        <v>1.159168144538413</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2901598222964594</v>
+        <v>0.8049701586330116</v>
       </c>
       <c r="C6">
-        <v>0.05514428061064791</v>
+        <v>0.1357907524628246</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3147809073601451</v>
+        <v>1.007852176681183</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002430865516651234</v>
+        <v>0.0008104116299115516</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2739644495740947</v>
+        <v>0.8653049054933319</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.297676217467867</v>
+        <v>1.160173173775433</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3024219534814847</v>
+        <v>0.845402176386159</v>
       </c>
       <c r="C7">
-        <v>0.05676865992923297</v>
+        <v>0.1406951668460437</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3299828882651923</v>
+        <v>1.062056984275372</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002430056707831238</v>
+        <v>0.0008091167451423617</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2871030311368372</v>
+        <v>0.9075139567658255</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.288255900709899</v>
+        <v>1.153563842403855</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3565344390181906</v>
+        <v>1.024338525417846</v>
       </c>
       <c r="C8">
-        <v>0.06389154376331874</v>
+        <v>0.1623535482101062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3972414439682552</v>
+        <v>1.30535847281142</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002426667738725298</v>
+        <v>0.0008035625658672524</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3449472884047395</v>
+        <v>1.09413071039026</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.250625484100723</v>
+        <v>1.13391460648819</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4626346507122605</v>
+        <v>1.378426364668229</v>
       </c>
       <c r="C9">
-        <v>0.07769377383846177</v>
+        <v>0.2050351553355512</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5298791984712778</v>
+        <v>1.802926350445887</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002420664961906481</v>
+        <v>0.0007932013535660731</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.457876284631368</v>
+        <v>1.46272088150107</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.191075715285237</v>
+        <v>1.134216171087729</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.540567927228949</v>
+        <v>1.641948241852674</v>
       </c>
       <c r="C10">
-        <v>0.08773145745531963</v>
+        <v>0.2366869206890243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6278987771391087</v>
+        <v>2.187131475645202</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002416642476409051</v>
+        <v>0.0007858659906900441</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5405279446148938</v>
+        <v>1.736585999810217</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.156086578636888</v>
+        <v>1.162941602610147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5760162539478131</v>
+        <v>1.76291883771168</v>
       </c>
       <c r="C11">
-        <v>0.0922752346481559</v>
+        <v>0.2511921088393905</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6726402600709349</v>
+        <v>2.367551669964868</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002414895839102381</v>
+        <v>0.0007825775996925649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5780578516655339</v>
+        <v>1.862203225809964</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.142088826596819</v>
+        <v>1.183396793784709</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5894387516663926</v>
+        <v>1.808917025929645</v>
       </c>
       <c r="C12">
-        <v>0.09399257589083732</v>
+        <v>0.2567041282784004</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6896064642672712</v>
+        <v>2.436835947983667</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002414246330527422</v>
+        <v>0.0007813382838470143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5922592537166054</v>
+        <v>1.909953485752482</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.137065606750099</v>
+        <v>1.192317027238403</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5865480288642573</v>
+        <v>1.799001529796811</v>
       </c>
       <c r="C13">
-        <v>0.09362286301222866</v>
+        <v>0.2555160945983488</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.68595141229234</v>
+        <v>2.421868879111855</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002414385685302515</v>
+        <v>0.0007816049469604108</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5892011958850105</v>
+        <v>1.899660966752919</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.138135084872687</v>
+        <v>1.190341760017191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5771205538084132</v>
+        <v>1.766699147968694</v>
       </c>
       <c r="C14">
-        <v>0.09241658762280736</v>
+        <v>0.2516451768921115</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6740355974109491</v>
+        <v>2.373231488917369</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002414842165428857</v>
+        <v>0.0007824755280144126</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5792264198615271</v>
+        <v>1.866127824547561</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.141669994781864</v>
+        <v>1.184106449219428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5713458077255211</v>
+        <v>1.746938660391976</v>
       </c>
       <c r="C15">
-        <v>0.09167727893127164</v>
+        <v>0.2492767541923513</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6667399387604718</v>
+        <v>2.343569938061322</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.00241512332117616</v>
+        <v>0.0007830095228462497</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5731152185174437</v>
+        <v>1.845612513694448</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.143871402053065</v>
+        <v>1.180443590383476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5382511782444794</v>
+        <v>1.634067191629669</v>
       </c>
       <c r="C16">
-        <v>0.08743405426891115</v>
+        <v>0.2357414401139835</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6249780202225139</v>
+        <v>2.175466665987074</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002416758292597632</v>
+        <v>0.0007860817837339836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5380738529248958</v>
+        <v>1.728400176763301</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.157040105675151</v>
+        <v>1.16176277836388</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5179473698090078</v>
+        <v>1.565125975724897</v>
       </c>
       <c r="C17">
-        <v>0.08482518544407469</v>
+        <v>0.2274678991514349</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.599398566133587</v>
+        <v>2.073888002733838</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002417782563722382</v>
+        <v>0.0007879782268781632</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5165591632076314</v>
+        <v>1.656781570780794</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.165611225891411</v>
+        <v>1.152271004821188</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5062688146661856</v>
+        <v>1.525573601856081</v>
       </c>
       <c r="C18">
-        <v>0.08332252708177634</v>
+        <v>0.2227189565908674</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.584700132128873</v>
+        <v>2.015983675572471</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002418379533240251</v>
+        <v>0.0007890736449195814</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5041780397451134</v>
+        <v>1.615683655308999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.170721642454851</v>
+        <v>1.14749962414021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5023146117616193</v>
+        <v>1.512198234732693</v>
       </c>
       <c r="C19">
-        <v>0.08281339307686153</v>
+        <v>0.221112614841374</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5797258797249896</v>
+        <v>1.996463446392426</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002418583004403862</v>
+        <v>0.000789445360657004</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4999849120255533</v>
+        <v>1.601784011623209</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.172482903818121</v>
+        <v>1.145999061204833</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5201087835192766</v>
+        <v>1.572454232715785</v>
       </c>
       <c r="C20">
-        <v>0.08510312242636076</v>
+        <v>0.2283475928955738</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6021200614348174</v>
+        <v>2.084646263618751</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002417672717626329</v>
+        <v>0.0007877758747995258</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5188501089327815</v>
+        <v>1.66439541177013</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.164680120122767</v>
+        <v>1.15320943675772</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5798896628564592</v>
+        <v>1.776181732266139</v>
       </c>
       <c r="C21">
-        <v>0.09277098971040232</v>
+        <v>0.2527816043623261</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6775349073391368</v>
+        <v>2.387490025337286</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002414707763596837</v>
+        <v>0.0007822196653235798</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5821565382581753</v>
+        <v>1.875972108436969</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.140624165012042</v>
+        <v>1.185905090807637</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6189538058017661</v>
+        <v>1.910449884538508</v>
       </c>
       <c r="C22">
-        <v>0.09776318648991378</v>
+        <v>0.2688648207835485</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7269611030361602</v>
+        <v>2.591114702060622</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002412839358399942</v>
+        <v>0.000778622335216545</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6234703529579519</v>
+        <v>2.015326987462061</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.126519943063101</v>
+        <v>1.214178971907302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5981052450352138</v>
+        <v>1.838674437229571</v>
       </c>
       <c r="C23">
-        <v>0.09510053496903481</v>
+        <v>0.2602690495625666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.700568185997156</v>
+        <v>2.481859513150653</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.00241383023469105</v>
+        <v>0.0007805395656401595</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.601426091770179</v>
+        <v>1.940840253018735</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.1338991191638</v>
+        <v>1.19841670685858</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5191316258707275</v>
+        <v>1.569140872053225</v>
       </c>
       <c r="C24">
-        <v>0.08497747578795156</v>
+        <v>0.2279498598871186</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6008896501042926</v>
+        <v>2.079780924502131</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002417722353809787</v>
+        <v>0.0007878673422054283</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5178144098461814</v>
+        <v>1.660952958191444</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.165100503823794</v>
+        <v>1.15278304461026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4339342978255729</v>
+        <v>1.282154840485191</v>
       </c>
       <c r="C25">
-        <v>0.07397783566773342</v>
+        <v>0.193450147764338</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4939054811941048</v>
+        <v>1.665535767914704</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002422220474494496</v>
+        <v>0.0007959520847197912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4273809917877713</v>
+        <v>1.362583335332062</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.205652514632888</v>
+        <v>1.129504746965694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.07298898864093</v>
+        <v>0.7387141096817231</v>
       </c>
       <c r="C2">
-        <v>0.168230511737093</v>
+        <v>0.1505504559933541</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.372459575783765</v>
+        <v>0.3395289744271039</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008020951473278221</v>
+        <v>0.6607672644806115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008823048134265488</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005235099784270059</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5071884042512096</v>
       </c>
       <c r="K2">
-        <v>1.144823505951251</v>
+        <v>0.4868183307179308</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8479343021919874</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.131054208629422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5742430313383338</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.932097313202604</v>
+        <v>0.6437266185724013</v>
       </c>
       <c r="C3">
-        <v>0.1511976624606461</v>
+        <v>0.1312759697207895</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.179246869129358</v>
+        <v>0.2958212947132353</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008063924347595713</v>
+        <v>0.6358653674557644</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001900370505667937</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007285731564354858</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5003962463457441</v>
       </c>
       <c r="K3">
-        <v>0.9979655137492784</v>
+        <v>0.4815106708064469</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7391350946009538</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.142172514193206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.499602088225835</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8458755058299516</v>
+        <v>0.5852461069372055</v>
       </c>
       <c r="C4">
-        <v>0.140752556853883</v>
+        <v>0.1196273413173543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.062693250139361</v>
+        <v>0.2690128687472324</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008091016829259723</v>
+        <v>0.620710130093812</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002747870933095808</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008807252104942265</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4963522748051901</v>
       </c>
       <c r="K4">
-        <v>0.9080079906945855</v>
+        <v>0.4782716005989158</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6724279854070261</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.153491510039942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4538360105535375</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8107928873309049</v>
+        <v>0.5611252283986516</v>
       </c>
       <c r="C5">
-        <v>0.1364973155451281</v>
+        <v>0.115240164699884</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.015640610958712</v>
+        <v>0.2580491491870944</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008102241213118794</v>
+        <v>0.6130276640267738</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003148185351802502</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009575618056878454</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4939325561029904</v>
       </c>
       <c r="K5">
-        <v>0.8713845980841199</v>
+        <v>0.4759299679658398</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.645510971705761</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.159168144538413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4352537397816931</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8049701586330116</v>
+        <v>0.5568159147813674</v>
       </c>
       <c r="C6">
-        <v>0.1357907524628246</v>
+        <v>0.1149036173905387</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.007852176681183</v>
+        <v>0.2561771856003574</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008104116299115516</v>
+        <v>0.6098812835052598</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003219927345994189</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.009818424974535667</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4925549817107537</v>
       </c>
       <c r="K6">
-        <v>0.8653049054933319</v>
+        <v>0.4742921765614838</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6413492652170021</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.160173173775433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4322389327961744</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.845402176386159</v>
+        <v>0.5840947058259474</v>
       </c>
       <c r="C7">
-        <v>0.1406951668460437</v>
+        <v>0.1206333934714223</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.062056984275372</v>
+        <v>0.2687237100081745</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008091167451423617</v>
+        <v>0.6154914196357453</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002758300646146794</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.009104469080278399</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4936528468774526</v>
       </c>
       <c r="K7">
-        <v>0.9075139567658255</v>
+        <v>0.47482938629987</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6729053067547</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.153563842403855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4537775757715536</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.024338525417846</v>
+        <v>0.7048857885198743</v>
       </c>
       <c r="C8">
-        <v>0.1623535482101062</v>
+        <v>0.1452841333963448</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.30535847281142</v>
+        <v>0.3242606045312115</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008035625658672524</v>
+        <v>0.6453982777698002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001189837005174832</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006227262961838953</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5013139236583868</v>
       </c>
       <c r="K8">
-        <v>1.09413071039026</v>
+        <v>0.4804949190363565</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8115144537193828</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.13391460648819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5487452136247413</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.378426364668229</v>
+        <v>0.942200344917353</v>
       </c>
       <c r="C9">
-        <v>0.2050351553355512</v>
+        <v>0.1933852382288705</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.802926350445887</v>
+        <v>0.4338465625543932</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007932013535660731</v>
+        <v>0.7145380307580211</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.896417150426544E-06</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002375265540890403</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.522196437127235</v>
       </c>
       <c r="K9">
-        <v>1.46272088150107</v>
+        <v>0.4979204790843355</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.082975971651138</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.134216171087729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7354141032954757</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.641948241852674</v>
+        <v>1.122814574343153</v>
       </c>
       <c r="C10">
-        <v>0.2366869206890243</v>
+        <v>0.2293594079307155</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.187131475645202</v>
+        <v>0.481595232162519</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007858659906900441</v>
+        <v>0.7385694184039693</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005699972620685223</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001255976014941318</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5240674877260005</v>
       </c>
       <c r="K10">
-        <v>1.736585999810217</v>
+        <v>0.4947237089168866</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.288467860413249</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.162941602610147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.843730393505794</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.76291883771168</v>
+        <v>1.267216120636874</v>
       </c>
       <c r="C11">
-        <v>0.2511921088393905</v>
+        <v>0.2370797070674655</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.367551669964868</v>
+        <v>0.2585347248542007</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007825775996925649</v>
+        <v>0.5419011647735346</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01893731514056896</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001623774776285281</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4182670916040507</v>
       </c>
       <c r="K11">
-        <v>1.862203225809964</v>
+        <v>0.37615055704849</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.422812198278365</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.183396793784709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6518103183228945</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.808917025929645</v>
+        <v>1.356093121723262</v>
       </c>
       <c r="C12">
-        <v>0.2567041282784004</v>
+        <v>0.2342802702503946</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.436835947983667</v>
+        <v>0.1195674026700608</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007813382838470143</v>
+        <v>0.4045118173447051</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05747627156703317</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001600378411101389</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.344990709286833</v>
       </c>
       <c r="K12">
-        <v>1.909953485752482</v>
+        <v>0.2996865254232119</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.493608355163445</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.192317027238403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4897808432002932</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.799001529796811</v>
+        <v>1.405126945750652</v>
       </c>
       <c r="C13">
-        <v>0.2555160945983488</v>
+        <v>0.2249301671683668</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.421868879111855</v>
+        <v>0.03669303753230047</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007816049469604108</v>
+        <v>0.2961032547463276</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131460666914421</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001636280766725839</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.287885182612257</v>
       </c>
       <c r="K13">
-        <v>1.899660966752919</v>
+        <v>0.2452110378144816</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.520194255370996</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.190341760017191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3425465381280475</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.766699147968694</v>
+        <v>1.421122924782054</v>
       </c>
       <c r="C14">
-        <v>0.2516451768921115</v>
+        <v>0.2158268799903311</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.373231488917369</v>
+        <v>0.01195100887534117</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007824755280144126</v>
+        <v>0.2361040038478421</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.162482461673477</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001790385645774606</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2564609739649626</v>
       </c>
       <c r="K14">
-        <v>1.866127824547561</v>
+        <v>0.2188327067571425</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.519076836491621</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.184106449219428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2502091421104069</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.746938660391976</v>
+        <v>1.415499126865654</v>
       </c>
       <c r="C15">
-        <v>0.2492767541923513</v>
+        <v>0.2126409459512502</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.343569938061322</v>
+        <v>0.01025056112134629</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007830095228462497</v>
+        <v>0.2236086857240949</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749953160348099</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001975864619014445</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2502369126052457</v>
       </c>
       <c r="K15">
-        <v>1.845612513694448</v>
+        <v>0.2144143428745142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.509381369826855</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.180443590383476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2281845470052097</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.634067191629669</v>
+        <v>1.32501866813314</v>
       </c>
       <c r="C16">
-        <v>0.2357414401139835</v>
+        <v>0.1998289786245095</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.175466665987074</v>
+        <v>0.009849403291648351</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007860817837339836</v>
+        <v>0.2336693520604669</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622938088748214</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002508392485146338</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2596897975056223</v>
       </c>
       <c r="K16">
-        <v>1.728400176763301</v>
+        <v>0.2250784689395502</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.414488660392493</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.16176277836388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2168233031604778</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.565125975724897</v>
+        <v>1.24734423072519</v>
       </c>
       <c r="C17">
-        <v>0.2274678991514349</v>
+        <v>0.1948875430495605</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.073888002733838</v>
+        <v>0.01694675441252613</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007879782268781632</v>
+        <v>0.2707325074480522</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245316680411293</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002897898151886125</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2825264615298479</v>
       </c>
       <c r="K17">
-        <v>1.656781570780794</v>
+        <v>0.2456804690189589</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.342596119104826</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.152271004821188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2542124638206005</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.525573601856081</v>
+        <v>1.17393217981666</v>
       </c>
       <c r="C18">
-        <v>0.2227189565908674</v>
+        <v>0.1952641895148872</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.015983675572471</v>
+        <v>0.05982283536533117</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007890736449195814</v>
+        <v>0.3501016323717536</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07163391946348696</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002799224666542699</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3267508763719604</v>
       </c>
       <c r="K18">
-        <v>1.615683655308999</v>
+        <v>0.28702438192024</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.282152262233097</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.14749962414021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3494059187945453</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.512198234732693</v>
+        <v>1.109243968134905</v>
       </c>
       <c r="C19">
-        <v>0.221112614841374</v>
+        <v>0.2020629037933759</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.996463446392426</v>
+        <v>0.1714985439908077</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.000789445360657004</v>
+        <v>0.4720386704490451</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0262536411026133</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002823875772127948</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.391520881876616</v>
       </c>
       <c r="K19">
-        <v>1.601784011623209</v>
+        <v>0.352198318445236</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.238036259873809</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.145999061204833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5029957377851062</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.572454232715785</v>
+        <v>1.072990962450177</v>
       </c>
       <c r="C20">
-        <v>0.2283475928955738</v>
+        <v>0.2231886648661146</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.084646263618751</v>
+        <v>0.4671761068127651</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007877758747995258</v>
+        <v>0.7156002501719172</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003117166044677155</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002265281486690363</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5149741561021557</v>
       </c>
       <c r="K20">
-        <v>1.66439541177013</v>
+        <v>0.484737303509867</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.237249342198908</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.15320943675772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8146110127148134</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.776181732266139</v>
+        <v>1.201274033790696</v>
       </c>
       <c r="C21">
-        <v>0.2527816043623261</v>
+        <v>0.2525143698735093</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.387490025337286</v>
+        <v>0.5555535719764606</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007822196653235798</v>
+        <v>0.777342742675458</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00107553876764066</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001729489276808494</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5386543859538335</v>
       </c>
       <c r="K21">
-        <v>1.875972108436969</v>
+        <v>0.5072385484089139</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.388295917403212</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.185905090807637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9440680267678729</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.910449884538508</v>
+        <v>1.28984450131307</v>
       </c>
       <c r="C22">
-        <v>0.2688648207835485</v>
+        <v>0.2699614336753484</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.591114702060622</v>
+        <v>0.5967892039694505</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.000778622335216545</v>
+        <v>0.8116829759426594</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001928706817204917</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001423224048727079</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.551086867366962</v>
       </c>
       <c r="K22">
-        <v>2.015326987462061</v>
+        <v>0.5189376775677275</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.488544552509637</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.214178971907302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.013568222856605</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.838674437229571</v>
+        <v>1.24358835837927</v>
       </c>
       <c r="C23">
-        <v>0.2602690495625666</v>
+        <v>0.2593120358027363</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.481859513150653</v>
+        <v>0.5749382352190509</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007805395656401595</v>
+        <v>0.7992259789216689</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001447622134183257</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001245519584580634</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5474651785069966</v>
       </c>
       <c r="K23">
-        <v>1.940840253018735</v>
+        <v>0.5165657064522335</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.433984095323581</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.19841670685858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.976216881855585</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.569140872053225</v>
+        <v>1.066914935543821</v>
       </c>
       <c r="C24">
-        <v>0.2279498598871186</v>
+        <v>0.2217000375703861</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.079780924502131</v>
+        <v>0.4923073701669978</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007878673422054283</v>
+        <v>0.7437206735015565</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0002345337334719311</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001744419659440055</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5295287297136753</v>
       </c>
       <c r="K24">
-        <v>1.660952958191444</v>
+        <v>0.5018138476101441</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.229822847621108</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.15278304461026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8357206185178754</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.282154840485191</v>
+        <v>0.8765484382677187</v>
       </c>
       <c r="C25">
-        <v>0.193450147764338</v>
+        <v>0.1821284977121991</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.665535767914704</v>
+        <v>0.4038625119117043</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007959520847197912</v>
+        <v>0.6864908821310678</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001035501982045162</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003626692963191402</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5116783690113067</v>
       </c>
       <c r="K25">
-        <v>1.362583335332062</v>
+        <v>0.4871120352788942</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.010892949713451</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.129504746965694</v>
+        <v>0.6851391445915525</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7387141096817231</v>
+        <v>0.7316065601011132</v>
       </c>
       <c r="C2">
-        <v>0.1505504559933541</v>
+        <v>0.167782499478605</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3395289744271039</v>
+        <v>0.3403642510975331</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6607672644806115</v>
+        <v>0.5259222713580982</v>
       </c>
       <c r="H2">
-        <v>0.0008823048134265488</v>
+        <v>0.0006053804072918556</v>
       </c>
       <c r="I2">
-        <v>0.005235099784270059</v>
+        <v>0.003406514502023228</v>
       </c>
       <c r="J2">
-        <v>0.5071884042512096</v>
+        <v>0.4577615657408955</v>
       </c>
       <c r="K2">
-        <v>0.4868183307179308</v>
+        <v>0.3944116497264218</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1836079262742558</v>
       </c>
       <c r="M2">
-        <v>0.8479343021919874</v>
+        <v>0.1166938386960545</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5742430313383338</v>
+        <v>0.8717150846600532</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5801886089606754</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6437266185724013</v>
+        <v>0.6401617732740874</v>
       </c>
       <c r="C3">
-        <v>0.1312759697207895</v>
+        <v>0.1441257431227854</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2958212947132353</v>
+        <v>0.2974002423357192</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6358653674557644</v>
+        <v>0.5181170252393983</v>
       </c>
       <c r="H3">
-        <v>0.001900370505667937</v>
+        <v>0.001426913225131887</v>
       </c>
       <c r="I3">
-        <v>0.007285731564354858</v>
+        <v>0.004767468634117478</v>
       </c>
       <c r="J3">
-        <v>0.5003962463457441</v>
+        <v>0.454402117668657</v>
       </c>
       <c r="K3">
-        <v>0.4815106708064469</v>
+        <v>0.3976889576980795</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1887170716137803</v>
       </c>
       <c r="M3">
-        <v>0.7391350946009538</v>
+        <v>0.115464644643378</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.499602088225835</v>
+        <v>0.7595852961819105</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5047063128451867</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5852461069372055</v>
+        <v>0.5837699522148512</v>
       </c>
       <c r="C4">
-        <v>0.1196273413173543</v>
+        <v>0.129863637955566</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2690128687472324</v>
+        <v>0.2710209213829415</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.620710130093812</v>
+        <v>0.5135018369271691</v>
       </c>
       <c r="H4">
-        <v>0.002747870933095808</v>
+        <v>0.00212969850899547</v>
       </c>
       <c r="I4">
-        <v>0.008807252104942265</v>
+        <v>0.00580668020790398</v>
       </c>
       <c r="J4">
-        <v>0.4963522748051901</v>
+        <v>0.4522486997822384</v>
       </c>
       <c r="K4">
-        <v>0.4782716005989158</v>
+        <v>0.3996852723833122</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1918610532389877</v>
       </c>
       <c r="M4">
-        <v>0.6724279854070261</v>
+        <v>0.1152052137103912</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4538360105535375</v>
+        <v>0.690807889699073</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4584086877851234</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5611252283986516</v>
+        <v>0.5605088926116082</v>
       </c>
       <c r="C5">
-        <v>0.115240164699884</v>
+        <v>0.124416592453926</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2580491491870944</v>
+        <v>0.2602302302706931</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6130276640267738</v>
+        <v>0.5104692345086619</v>
       </c>
       <c r="H5">
-        <v>0.003148185351802502</v>
+        <v>0.002464932548606358</v>
       </c>
       <c r="I5">
-        <v>0.009575618056878454</v>
+        <v>0.006374221710001571</v>
       </c>
       <c r="J5">
-        <v>0.4939325561029904</v>
+        <v>0.4507001951658509</v>
       </c>
       <c r="K5">
-        <v>0.4759299679658398</v>
+        <v>0.3997248404591645</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1927753303442756</v>
       </c>
       <c r="M5">
-        <v>0.645510971705761</v>
+        <v>0.1150150359175832</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4352537397816931</v>
+        <v>0.6630134938169903</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4395997755426677</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5568159147813674</v>
+        <v>0.5563767584647792</v>
       </c>
       <c r="C6">
-        <v>0.1149036173905387</v>
+        <v>0.1238880164432601</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2561771856003574</v>
+        <v>0.258392146656476</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6098812835052598</v>
+        <v>0.508517160712934</v>
       </c>
       <c r="H6">
-        <v>0.003219927345994189</v>
+        <v>0.002525071640843479</v>
       </c>
       <c r="I6">
-        <v>0.009818424974535667</v>
+        <v>0.006596358985487605</v>
       </c>
       <c r="J6">
-        <v>0.4925549817107537</v>
+        <v>0.4496520062130216</v>
       </c>
       <c r="K6">
-        <v>0.4742921765614838</v>
+        <v>0.3987955130262719</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1924794055653258</v>
       </c>
       <c r="M6">
-        <v>0.6413492652170021</v>
+        <v>0.1147367119509077</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4322389327961744</v>
+        <v>0.6586703611692002</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.436538632612276</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5840947058259474</v>
+        <v>0.5830004720393163</v>
       </c>
       <c r="C7">
-        <v>0.1206333934714223</v>
+        <v>0.1303406183332925</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2687237100081745</v>
+        <v>0.2707709486334124</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6154914196357453</v>
+        <v>0.5109211065083414</v>
       </c>
       <c r="H7">
-        <v>0.002758300646146794</v>
+        <v>0.002141149092009798</v>
       </c>
       <c r="I7">
-        <v>0.009104469080278399</v>
+        <v>0.006144820027430775</v>
       </c>
       <c r="J7">
-        <v>0.4936528468774526</v>
+        <v>0.4448677766437541</v>
       </c>
       <c r="K7">
-        <v>0.47482938629987</v>
+        <v>0.395924873402663</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1901138106773921</v>
       </c>
       <c r="M7">
-        <v>0.6729053067547</v>
+        <v>0.114139275446238</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4537775757715536</v>
+        <v>0.6907774930332664</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.458235821795725</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7048857885198743</v>
+        <v>0.7000668405200656</v>
       </c>
       <c r="C8">
-        <v>0.1452841333963448</v>
+        <v>0.1593514786579391</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3242606045312115</v>
+        <v>0.3254538936143092</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6453982777698002</v>
+        <v>0.5227920634946202</v>
       </c>
       <c r="H8">
-        <v>0.001189837005174832</v>
+        <v>0.0008551195952770652</v>
       </c>
       <c r="I8">
-        <v>0.006227262961838953</v>
+        <v>0.00424015474282502</v>
       </c>
       <c r="J8">
-        <v>0.5013139236583868</v>
+        <v>0.4370187509359909</v>
       </c>
       <c r="K8">
-        <v>0.4804949190363565</v>
+        <v>0.3883419894368032</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1822493471331086</v>
       </c>
       <c r="M8">
-        <v>0.8115144537193828</v>
+        <v>0.1138786741666706</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5487452136247413</v>
+        <v>0.8326841703944297</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5540750551546196</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.942200344917353</v>
+        <v>0.9281491866977944</v>
       </c>
       <c r="C9">
-        <v>0.1933852382288705</v>
+        <v>0.2183977184008512</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4338465625543932</v>
+        <v>0.4330093870359875</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.7145380307580211</v>
+        <v>0.5496017174467198</v>
       </c>
       <c r="H9">
-        <v>1.896417150426544E-06</v>
+        <v>4.455161418448483E-06</v>
       </c>
       <c r="I9">
-        <v>0.002375265540890403</v>
+        <v>0.001700712837825691</v>
       </c>
       <c r="J9">
-        <v>0.522196437127235</v>
+        <v>0.4430653375546569</v>
       </c>
       <c r="K9">
-        <v>0.4979204790843355</v>
+        <v>0.3822276577507218</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1708355596877418</v>
       </c>
       <c r="M9">
-        <v>1.082975971651138</v>
+        <v>0.1200101396373192</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7354141032954757</v>
+        <v>1.111949821904062</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7426605299891804</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.122814574343153</v>
+        <v>1.103816644807438</v>
       </c>
       <c r="C10">
-        <v>0.2293594079307155</v>
+        <v>0.2587248051789715</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.481595232162519</v>
+        <v>0.4794530983361938</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7385694184039693</v>
+        <v>0.5598125611069946</v>
       </c>
       <c r="H10">
-        <v>0.0005699972620685223</v>
+        <v>0.0006578742774570046</v>
       </c>
       <c r="I10">
-        <v>0.001255976014941318</v>
+        <v>0.001203437837378196</v>
       </c>
       <c r="J10">
-        <v>0.5240674877260005</v>
+        <v>0.4107902750846932</v>
       </c>
       <c r="K10">
-        <v>0.4947237089168866</v>
+        <v>0.3614452295669643</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1568060457729281</v>
       </c>
       <c r="M10">
-        <v>1.288467860413249</v>
+        <v>0.1203984634733146</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.843730393505794</v>
+        <v>1.319686589907548</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8513506206175592</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267216120636874</v>
+        <v>1.255406997275486</v>
       </c>
       <c r="C11">
-        <v>0.2370797070674655</v>
+        <v>0.253473395000114</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2585347248542007</v>
+        <v>0.2577064112760681</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5419011647735346</v>
+        <v>0.4307322704601688</v>
       </c>
       <c r="H11">
-        <v>0.01893731514056896</v>
+        <v>0.01898489328474184</v>
       </c>
       <c r="I11">
-        <v>0.001623774776285281</v>
+        <v>0.001781337132067407</v>
       </c>
       <c r="J11">
-        <v>0.4182670916040507</v>
+        <v>0.3016832530748417</v>
       </c>
       <c r="K11">
-        <v>0.37615055704849</v>
+        <v>0.2744834272095709</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1249247964418672</v>
       </c>
       <c r="M11">
-        <v>1.422812198278365</v>
+        <v>0.08828077366062281</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6518103183228945</v>
+        <v>1.443878882684999</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6561760657303708</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.356093121723262</v>
+        <v>1.35080833323093</v>
       </c>
       <c r="C12">
-        <v>0.2342802702503946</v>
+        <v>0.2409127832886924</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1195674026700608</v>
+        <v>0.1195544196530811</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.4045118173447051</v>
+        <v>0.3347471494258585</v>
       </c>
       <c r="H12">
-        <v>0.05747627156703317</v>
+        <v>0.05750204266129799</v>
       </c>
       <c r="I12">
-        <v>0.001600378411101389</v>
+        <v>0.001772288552635892</v>
       </c>
       <c r="J12">
-        <v>0.344990709286833</v>
+        <v>0.2539481728257549</v>
       </c>
       <c r="K12">
-        <v>0.2996865254232119</v>
+        <v>0.226536367462673</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.109147685787641</v>
       </c>
       <c r="M12">
-        <v>1.493608355163445</v>
+        <v>0.06857994320650995</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4897808432002932</v>
+        <v>1.506728123944043</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4921365451673125</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.405126945750652</v>
+        <v>1.405339506383257</v>
       </c>
       <c r="C13">
-        <v>0.2249301671683668</v>
+        <v>0.2247541264864026</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03669303753230047</v>
+        <v>0.03718712465412288</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2961032547463276</v>
+        <v>0.2518823970962885</v>
       </c>
       <c r="H13">
-        <v>0.1131460666914421</v>
+        <v>0.1131512395920424</v>
       </c>
       <c r="I13">
-        <v>0.001636280766725839</v>
+        <v>0.001751066889962516</v>
       </c>
       <c r="J13">
-        <v>0.287885182612257</v>
+        <v>0.2353984524300934</v>
       </c>
       <c r="K13">
-        <v>0.2452110378144816</v>
+        <v>0.1992531750271258</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1011361318846138</v>
       </c>
       <c r="M13">
-        <v>1.520194255370996</v>
+        <v>0.05591975366789903</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3425465381280475</v>
+        <v>1.527789905904825</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.343673519105451</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.421122924782054</v>
+        <v>1.424713969748467</v>
       </c>
       <c r="C14">
-        <v>0.2158268799903311</v>
+        <v>0.2120958963374875</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01195100887534117</v>
+        <v>0.01264859193679735</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2361040038478421</v>
+        <v>0.203350174131252</v>
       </c>
       <c r="H14">
-        <v>0.162482461673477</v>
+        <v>0.1624678328859943</v>
       </c>
       <c r="I14">
-        <v>0.001790385645774606</v>
+        <v>0.001840964219699259</v>
       </c>
       <c r="J14">
-        <v>0.2564609739649626</v>
+        <v>0.230050343098541</v>
       </c>
       <c r="K14">
-        <v>0.2188327067571425</v>
+        <v>0.1886829463334179</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09835322481476866</v>
       </c>
       <c r="M14">
-        <v>1.519076836491621</v>
+        <v>0.0503273186768709</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2502091421104069</v>
+        <v>1.523832609593001</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2507577221230548</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.415499126865654</v>
+        <v>1.419698968991099</v>
       </c>
       <c r="C15">
-        <v>0.2126409459512502</v>
+        <v>0.2084719454595358</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01025056112134629</v>
+        <v>0.0110044526922732</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.2236086857240949</v>
+        <v>0.1926055797638639</v>
       </c>
       <c r="H15">
-        <v>0.1749953160348099</v>
+        <v>0.1749713099173817</v>
       </c>
       <c r="I15">
-        <v>0.001975864619014445</v>
+        <v>0.002010470841936396</v>
       </c>
       <c r="J15">
-        <v>0.2502369126052457</v>
+        <v>0.2305327941926771</v>
       </c>
       <c r="K15">
-        <v>0.2144143428745142</v>
+        <v>0.1878406900736769</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09816969138438636</v>
       </c>
       <c r="M15">
-        <v>1.509381369826855</v>
+        <v>0.04962996416307153</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2281845470052097</v>
+        <v>1.513916683783322</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2286517661574479</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.32501866813314</v>
+        <v>1.327143385280209</v>
       </c>
       <c r="C16">
-        <v>0.1998289786245095</v>
+        <v>0.1993941953010818</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.009849403291648351</v>
+        <v>0.01088085361380164</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.2336693520604669</v>
+        <v>0.1973422763245232</v>
       </c>
       <c r="H16">
-        <v>0.1622938088748214</v>
+        <v>0.1622143127278832</v>
       </c>
       <c r="I16">
-        <v>0.002508392485146338</v>
+        <v>0.002332336219512676</v>
       </c>
       <c r="J16">
-        <v>0.2596897975056223</v>
+        <v>0.2506691767656548</v>
       </c>
       <c r="K16">
-        <v>0.2250784689395502</v>
+        <v>0.2002815890319223</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1017574688880905</v>
       </c>
       <c r="M16">
-        <v>1.414488660392493</v>
+        <v>0.05414615267970291</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2168233031604778</v>
+        <v>1.423421634111861</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.217706241345109</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.24734423072519</v>
+        <v>1.246696558030067</v>
       </c>
       <c r="C17">
-        <v>0.1948875430495605</v>
+        <v>0.1985472538898705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01694675441252613</v>
+        <v>0.01807986416831842</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2707325074480522</v>
+        <v>0.2245000040806673</v>
       </c>
       <c r="H17">
-        <v>0.1245316680411293</v>
+        <v>0.1244182420782778</v>
       </c>
       <c r="I17">
-        <v>0.002897898151886125</v>
+        <v>0.002585635546475729</v>
       </c>
       <c r="J17">
-        <v>0.2825264615298479</v>
+        <v>0.2745138082061978</v>
       </c>
       <c r="K17">
-        <v>0.2456804690189589</v>
+        <v>0.2163206293342608</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1070526395895106</v>
       </c>
       <c r="M17">
-        <v>1.342596119104826</v>
+        <v>0.06027202335611026</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2542124638206005</v>
+        <v>1.355613938598339</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2557234750753317</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.17393217981666</v>
+        <v>1.168937878198761</v>
       </c>
       <c r="C18">
-        <v>0.1952641895148872</v>
+        <v>0.2050004804673335</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05982283536533117</v>
+        <v>0.06076997393369865</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3501016323717536</v>
+        <v>0.2821788243306571</v>
       </c>
       <c r="H18">
-        <v>0.07163391946348696</v>
+        <v>0.07152656573896365</v>
       </c>
       <c r="I18">
-        <v>0.002799224666542699</v>
+        <v>0.002389035317007959</v>
       </c>
       <c r="J18">
-        <v>0.3267508763719604</v>
+        <v>0.3106303866128002</v>
       </c>
       <c r="K18">
-        <v>0.28702438192024</v>
+        <v>0.2444236078281836</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1171269362025598</v>
       </c>
       <c r="M18">
-        <v>1.282152262233097</v>
+        <v>0.07100458172055291</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3494059187945453</v>
+        <v>1.300417548946939</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3521122697031416</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109243968134905</v>
+        <v>1.099076410134103</v>
       </c>
       <c r="C19">
-        <v>0.2020629037933759</v>
+        <v>0.2194886782963295</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1714985439908077</v>
+        <v>0.1717874512046933</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.4720386704490451</v>
+        <v>0.3686723068514013</v>
       </c>
       <c r="H19">
-        <v>0.0262536411026133</v>
+        <v>0.02619994639266565</v>
       </c>
       <c r="I19">
-        <v>0.002823875772127948</v>
+        <v>0.002481792525121485</v>
       </c>
       <c r="J19">
-        <v>0.391520881876616</v>
+        <v>0.3584507046419034</v>
       </c>
       <c r="K19">
-        <v>0.352198318445236</v>
+        <v>0.2862730205871671</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1324164225610609</v>
       </c>
       <c r="M19">
-        <v>1.238036259873809</v>
+        <v>0.08707220199754495</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5029957377851062</v>
+        <v>1.262072124317456</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5075110690652167</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.072990962450177</v>
+        <v>1.054686751266161</v>
       </c>
       <c r="C20">
-        <v>0.2231886648661146</v>
+        <v>0.2530272156842273</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4671761068127651</v>
+        <v>0.4653713166080493</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7156002501719172</v>
+        <v>0.5394934749610485</v>
       </c>
       <c r="H20">
-        <v>0.0003117166044677155</v>
+        <v>0.0003906865229281742</v>
       </c>
       <c r="I20">
-        <v>0.002265281486690363</v>
+        <v>0.002220363417839266</v>
       </c>
       <c r="J20">
-        <v>0.5149741561021557</v>
+        <v>0.4294539393560939</v>
       </c>
       <c r="K20">
-        <v>0.484737303509867</v>
+        <v>0.3633780826558208</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1591287394666416</v>
       </c>
       <c r="M20">
-        <v>1.237249342198908</v>
+        <v>0.118842184715902</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8146110127148134</v>
+        <v>1.269090042585049</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.82239195379546</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.201274033790696</v>
+        <v>1.183295904937722</v>
       </c>
       <c r="C21">
-        <v>0.2525143698735093</v>
+        <v>0.2781222762200457</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5555535719764606</v>
+        <v>0.5527908244882482</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.777342742675458</v>
+        <v>0.6069841594913044</v>
       </c>
       <c r="H21">
-        <v>0.00107553876764066</v>
+        <v>0.00114523665347277</v>
       </c>
       <c r="I21">
-        <v>0.001729489276808494</v>
+        <v>0.002024511184392175</v>
       </c>
       <c r="J21">
-        <v>0.5386543859538335</v>
+        <v>0.3433844831772248</v>
       </c>
       <c r="K21">
-        <v>0.5072385484089139</v>
+        <v>0.3432470243628885</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1475440994757129</v>
       </c>
       <c r="M21">
-        <v>1.388295917403212</v>
+        <v>0.11760673516293</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9440680267678729</v>
+        <v>1.414893569809038</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9507754741412384</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.28984450131307</v>
+        <v>1.272760092605353</v>
       </c>
       <c r="C22">
-        <v>0.2699614336753484</v>
+        <v>0.2914909113631268</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5967892039694505</v>
+        <v>0.5935213460107462</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8116829759426594</v>
+        <v>0.6518383068098075</v>
       </c>
       <c r="H22">
-        <v>0.001928706817204917</v>
+        <v>0.001934327188003238</v>
       </c>
       <c r="I22">
-        <v>0.001423224048727079</v>
+        <v>0.001753448287303172</v>
       </c>
       <c r="J22">
-        <v>0.551086867366962</v>
+        <v>0.292932177832121</v>
       </c>
       <c r="K22">
-        <v>0.5189376775677275</v>
+        <v>0.3274199482264066</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1395047856701197</v>
       </c>
       <c r="M22">
-        <v>1.488544552509637</v>
+        <v>0.1157109821618008</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.013568222856605</v>
+        <v>1.510597433215111</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.019194168424214</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.24358835837927</v>
+        <v>1.225113057463318</v>
       </c>
       <c r="C23">
-        <v>0.2593120358027363</v>
+        <v>0.2843996651019438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5749382352190509</v>
+        <v>0.5718439337269743</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7992259789216689</v>
+        <v>0.6279391084052008</v>
       </c>
       <c r="H23">
-        <v>0.001447622134183257</v>
+        <v>0.001496219341788452</v>
       </c>
       <c r="I23">
-        <v>0.001245519584580634</v>
+        <v>0.001507130272618618</v>
       </c>
       <c r="J23">
-        <v>0.5474651785069966</v>
+        <v>0.3284964807476953</v>
       </c>
       <c r="K23">
-        <v>0.5165657064522335</v>
+        <v>0.3408766323151688</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1453903512589783</v>
       </c>
       <c r="M23">
-        <v>1.433984095323581</v>
+        <v>0.1188529845082869</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.976216881855585</v>
+        <v>1.45971369168069</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9827117984996292</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.066914935543821</v>
+        <v>1.047918552797853</v>
       </c>
       <c r="C24">
-        <v>0.2217000375703861</v>
+        <v>0.2525023229337364</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4923073701669978</v>
+        <v>0.4903094594231447</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7437206735015565</v>
+        <v>0.5593553595619625</v>
       </c>
       <c r="H24">
-        <v>0.0002345337334719311</v>
+        <v>0.000319905252972541</v>
       </c>
       <c r="I24">
-        <v>0.001744419659440055</v>
+        <v>0.001609181515410896</v>
       </c>
       <c r="J24">
-        <v>0.5295287297136753</v>
+        <v>0.4404945746076407</v>
       </c>
       <c r="K24">
-        <v>0.5018138476101441</v>
+        <v>0.3746783341854929</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1632570749778424</v>
       </c>
       <c r="M24">
-        <v>1.229822847621108</v>
+        <v>0.1231812397210454</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8357206185178754</v>
+        <v>1.262402456221622</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8438088716094114</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8765484382677187</v>
+        <v>0.8648832209440229</v>
       </c>
       <c r="C25">
-        <v>0.1821284977121991</v>
+        <v>0.2047486190200658</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4038625119117043</v>
+        <v>0.4036052499206306</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6864908821310678</v>
+        <v>0.5331882819670142</v>
       </c>
       <c r="H25">
-        <v>0.0001035501982045162</v>
+        <v>3.804146656238849E-05</v>
       </c>
       <c r="I25">
-        <v>0.003626692963191402</v>
+        <v>0.002725674523644805</v>
       </c>
       <c r="J25">
-        <v>0.5116783690113067</v>
+        <v>0.4449739948980493</v>
       </c>
       <c r="K25">
-        <v>0.4871120352788942</v>
+        <v>0.3812582072875692</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1728881923538914</v>
       </c>
       <c r="M25">
-        <v>1.010892949713451</v>
+        <v>0.1169787534864852</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6851391445915525</v>
+        <v>1.038212131825958</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.691977466366211</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
